--- a/natmiOut/OldD4/LR-pairs_lrc2p/Has2-Hmmr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Has2-Hmmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Hmmr</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>48.0722997250643</v>
+        <v>0.2004523333333333</v>
       </c>
       <c r="H2">
-        <v>48.0722997250643</v>
+        <v>0.601357</v>
       </c>
       <c r="I2">
-        <v>0.9745125761144775</v>
+        <v>0.00350521822469015</v>
       </c>
       <c r="J2">
-        <v>0.9745125761144775</v>
+        <v>0.003553987077041381</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.13048608938967</v>
+        <v>4.663160333333334</v>
       </c>
       <c r="N2">
-        <v>1.13048608938967</v>
+        <v>13.989481</v>
       </c>
       <c r="O2">
-        <v>0.1088709993669515</v>
+        <v>0.2536251292035914</v>
       </c>
       <c r="P2">
-        <v>0.1088709993669515</v>
+        <v>0.2861845043282563</v>
       </c>
       <c r="Q2">
-        <v>54.34506612415605</v>
+        <v>0.9347413695241112</v>
       </c>
       <c r="R2">
-        <v>54.34506612415605</v>
+        <v>8.412672325717001</v>
       </c>
       <c r="S2">
-        <v>0.1060961580572456</v>
+        <v>0.0008890114251238225</v>
       </c>
       <c r="T2">
-        <v>0.1060961580572456</v>
+        <v>0.001017096030032116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>48.0722997250643</v>
+        <v>0.2004523333333333</v>
       </c>
       <c r="H3">
-        <v>48.0722997250643</v>
+        <v>0.601357</v>
       </c>
       <c r="I3">
-        <v>0.9745125761144775</v>
+        <v>0.00350521822469015</v>
       </c>
       <c r="J3">
-        <v>0.9745125761144775</v>
+        <v>0.003553987077041381</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.42482753620649</v>
+        <v>5.721911333333334</v>
       </c>
       <c r="N3">
-        <v>5.42482753620649</v>
+        <v>17.165734</v>
       </c>
       <c r="O3">
-        <v>0.5224357918274042</v>
+        <v>0.3112096512818797</v>
       </c>
       <c r="P3">
-        <v>0.5224357918274042</v>
+        <v>0.3511614959997941</v>
       </c>
       <c r="Q3">
-        <v>260.7839352773005</v>
+        <v>1.146970477893111</v>
       </c>
       <c r="R3">
-        <v>260.7839352773005</v>
+        <v>10.322734301038</v>
       </c>
       <c r="S3">
-        <v>0.5091202493481305</v>
+        <v>0.001090857741372711</v>
       </c>
       <c r="T3">
-        <v>0.5091202493481305</v>
+        <v>0.001248023418737787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>48.0722997250643</v>
+        <v>0.2004523333333333</v>
       </c>
       <c r="H4">
-        <v>48.0722997250643</v>
+        <v>0.601357</v>
       </c>
       <c r="I4">
-        <v>0.9745125761144775</v>
+        <v>0.00350521822469015</v>
       </c>
       <c r="J4">
-        <v>0.9745125761144775</v>
+        <v>0.003553987077041381</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.929212332208564</v>
+        <v>0.7592263333333333</v>
       </c>
       <c r="N4">
-        <v>0.929212332208564</v>
+        <v>2.277679</v>
       </c>
       <c r="O4">
-        <v>0.08948741269895585</v>
+        <v>0.04129364274909889</v>
       </c>
       <c r="P4">
-        <v>0.08948741269895585</v>
+        <v>0.04659475470418655</v>
       </c>
       <c r="Q4">
-        <v>44.6693737421561</v>
+        <v>0.1521886900447778</v>
       </c>
       <c r="R4">
-        <v>44.6693737421561</v>
+        <v>1.369698210403</v>
       </c>
       <c r="S4">
-        <v>0.08720660907907887</v>
+        <v>0.0001447432291279857</v>
       </c>
       <c r="T4">
-        <v>0.08720660907907887</v>
+        <v>0.0001655971560765921</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>48.0722997250643</v>
+        <v>0.2004523333333333</v>
       </c>
       <c r="H5">
-        <v>48.0722997250643</v>
+        <v>0.601357</v>
       </c>
       <c r="I5">
-        <v>0.9745125761144775</v>
+        <v>0.00350521822469015</v>
       </c>
       <c r="J5">
-        <v>0.9745125761144775</v>
+        <v>0.003553987077041381</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.899195106235</v>
+        <v>0.9663673333333334</v>
       </c>
       <c r="N5">
-        <v>2.899195106235</v>
+        <v>2.899102</v>
       </c>
       <c r="O5">
-        <v>0.2792057961066883</v>
+        <v>0.05255985688992966</v>
       </c>
       <c r="P5">
-        <v>0.2792057961066883</v>
+        <v>0.0593072801533564</v>
       </c>
       <c r="Q5">
-        <v>139.3709761083686</v>
+        <v>0.1937105868237778</v>
       </c>
       <c r="R5">
-        <v>139.3709761083686</v>
+        <v>1.743395281414</v>
       </c>
       <c r="S5">
-        <v>0.2720895596300223</v>
+        <v>0.0001842337682576876</v>
       </c>
       <c r="T5">
-        <v>0.2720895596300223</v>
+        <v>0.0002107773072395014</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.25728401077163</v>
+        <v>0.2004523333333333</v>
       </c>
       <c r="H6">
-        <v>1.25728401077163</v>
+        <v>0.601357</v>
       </c>
       <c r="I6">
-        <v>0.02548742388552257</v>
+        <v>0.00350521822469015</v>
       </c>
       <c r="J6">
-        <v>0.02548742388552257</v>
+        <v>0.003553987077041381</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.13048608938967</v>
+        <v>6.275369</v>
       </c>
       <c r="N6">
-        <v>1.13048608938967</v>
+        <v>12.550738</v>
       </c>
       <c r="O6">
-        <v>0.1088709993669515</v>
+        <v>0.3413117198755004</v>
       </c>
       <c r="P6">
-        <v>0.1088709993669515</v>
+        <v>0.2567519648144067</v>
       </c>
       <c r="Q6">
-        <v>1.42134208458938</v>
+        <v>1.257912358577667</v>
       </c>
       <c r="R6">
-        <v>1.42134208458938</v>
+        <v>7.547474151466</v>
       </c>
       <c r="S6">
-        <v>0.002774841309705952</v>
+        <v>0.001196372060807943</v>
       </c>
       <c r="T6">
-        <v>0.002774841309705952</v>
+        <v>0.0009124931649553846</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.25728401077163</v>
+        <v>54.63217833333334</v>
       </c>
       <c r="H7">
-        <v>1.25728401077163</v>
+        <v>163.896535</v>
       </c>
       <c r="I7">
-        <v>0.02548742388552257</v>
+        <v>0.9553279024698591</v>
       </c>
       <c r="J7">
-        <v>0.02548742388552257</v>
+        <v>0.9686195843099198</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.42482753620649</v>
+        <v>4.663160333333334</v>
       </c>
       <c r="N7">
-        <v>5.42482753620649</v>
+        <v>13.989481</v>
       </c>
       <c r="O7">
-        <v>0.5224357918274042</v>
+        <v>0.2536251292035914</v>
       </c>
       <c r="P7">
-        <v>0.5224357918274042</v>
+        <v>0.2861845043282563</v>
       </c>
       <c r="Q7">
-        <v>6.820548922466076</v>
+        <v>254.7586069275928</v>
       </c>
       <c r="R7">
-        <v>6.820548922466076</v>
+        <v>2292.827462348335</v>
       </c>
       <c r="S7">
-        <v>0.01331554247927368</v>
+        <v>0.2422951626957139</v>
       </c>
       <c r="T7">
-        <v>0.01331554247927368</v>
+        <v>0.2772039156183761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.25728401077163</v>
+        <v>54.63217833333334</v>
       </c>
       <c r="H8">
-        <v>1.25728401077163</v>
+        <v>163.896535</v>
       </c>
       <c r="I8">
-        <v>0.02548742388552257</v>
+        <v>0.9553279024698591</v>
       </c>
       <c r="J8">
-        <v>0.02548742388552257</v>
+        <v>0.9686195843099198</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.929212332208564</v>
+        <v>5.721911333333334</v>
       </c>
       <c r="N8">
-        <v>0.929212332208564</v>
+        <v>17.165734</v>
       </c>
       <c r="O8">
-        <v>0.08948741269895585</v>
+        <v>0.3112096512818797</v>
       </c>
       <c r="P8">
-        <v>0.08948741269895585</v>
+        <v>0.3511614959997941</v>
       </c>
       <c r="Q8">
-        <v>1.168283807897644</v>
+        <v>312.6004803701878</v>
       </c>
       <c r="R8">
-        <v>1.168283807897644</v>
+        <v>2813.40432333169</v>
       </c>
       <c r="S8">
-        <v>0.002280803619876983</v>
+        <v>0.2973072633874944</v>
       </c>
       <c r="T8">
-        <v>0.002280803619876983</v>
+        <v>0.3401419022809701</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>54.63217833333334</v>
+      </c>
+      <c r="H9">
+        <v>163.896535</v>
+      </c>
+      <c r="I9">
+        <v>0.9553279024698591</v>
+      </c>
+      <c r="J9">
+        <v>0.9686195843099198</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.7592263333333333</v>
+      </c>
+      <c r="N9">
+        <v>2.277679</v>
+      </c>
+      <c r="O9">
+        <v>0.04129364274909889</v>
+      </c>
+      <c r="P9">
+        <v>0.04659475470418655</v>
+      </c>
+      <c r="Q9">
+        <v>41.47818843802945</v>
+      </c>
+      <c r="R9">
+        <v>373.303695942265</v>
+      </c>
+      <c r="S9">
+        <v>0.03944896911283635</v>
+      </c>
+      <c r="T9">
+        <v>0.04513259193259186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>54.63217833333334</v>
+      </c>
+      <c r="H10">
+        <v>163.896535</v>
+      </c>
+      <c r="I10">
+        <v>0.9553279024698591</v>
+      </c>
+      <c r="J10">
+        <v>0.9686195843099198</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9663673333333334</v>
+      </c>
+      <c r="N10">
+        <v>2.899102</v>
+      </c>
+      <c r="O10">
+        <v>0.05255985688992966</v>
+      </c>
+      <c r="P10">
+        <v>0.0593072801533564</v>
+      </c>
+      <c r="Q10">
+        <v>52.79475249017445</v>
+      </c>
+      <c r="R10">
+        <v>475.15277241157</v>
+      </c>
+      <c r="S10">
+        <v>0.05021189783677248</v>
+      </c>
+      <c r="T10">
+        <v>0.05744619304869603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>54.63217833333334</v>
+      </c>
+      <c r="H11">
+        <v>163.896535</v>
+      </c>
+      <c r="I11">
+        <v>0.9553279024698591</v>
+      </c>
+      <c r="J11">
+        <v>0.9686195843099198</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.275369</v>
+      </c>
+      <c r="N11">
+        <v>12.550738</v>
+      </c>
+      <c r="O11">
+        <v>0.3413117198755004</v>
+      </c>
+      <c r="P11">
+        <v>0.2567519648144067</v>
+      </c>
+      <c r="Q11">
+        <v>342.8370783154717</v>
+      </c>
+      <c r="R11">
+        <v>2057.02246989283</v>
+      </c>
+      <c r="S11">
+        <v>0.3260646094370419</v>
+      </c>
+      <c r="T11">
+        <v>0.2486949814292857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.3542035</v>
+      </c>
+      <c r="H12">
+        <v>4.708407</v>
+      </c>
+      <c r="I12">
+        <v>0.04116687930545086</v>
+      </c>
+      <c r="J12">
+        <v>0.02782642861303881</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.663160333333334</v>
+      </c>
+      <c r="N12">
+        <v>13.989481</v>
+      </c>
+      <c r="O12">
+        <v>0.2536251292035914</v>
+      </c>
+      <c r="P12">
+        <v>0.2861845043282563</v>
+      </c>
+      <c r="Q12">
+        <v>10.9780283777945</v>
+      </c>
+      <c r="R12">
+        <v>65.86817026676701</v>
+      </c>
+      <c r="S12">
+        <v>0.01044095508275363</v>
+      </c>
+      <c r="T12">
+        <v>0.007963492679848121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.25728401077163</v>
-      </c>
-      <c r="H9">
-        <v>1.25728401077163</v>
-      </c>
-      <c r="I9">
-        <v>0.02548742388552257</v>
-      </c>
-      <c r="J9">
-        <v>0.02548742388552257</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.899195106235</v>
-      </c>
-      <c r="N9">
-        <v>2.899195106235</v>
-      </c>
-      <c r="O9">
-        <v>0.2792057961066883</v>
-      </c>
-      <c r="P9">
-        <v>0.2792057961066883</v>
-      </c>
-      <c r="Q9">
-        <v>3.645111651176623</v>
-      </c>
-      <c r="R9">
-        <v>3.645111651176623</v>
-      </c>
-      <c r="S9">
-        <v>0.00711623647666595</v>
-      </c>
-      <c r="T9">
-        <v>0.00711623647666595</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.3542035</v>
+      </c>
+      <c r="H13">
+        <v>4.708407</v>
+      </c>
+      <c r="I13">
+        <v>0.04116687930545086</v>
+      </c>
+      <c r="J13">
+        <v>0.02782642861303881</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.721911333333334</v>
+      </c>
+      <c r="N13">
+        <v>17.165734</v>
+      </c>
+      <c r="O13">
+        <v>0.3112096512818797</v>
+      </c>
+      <c r="P13">
+        <v>0.3511614959997941</v>
+      </c>
+      <c r="Q13">
+        <v>13.470543687623</v>
+      </c>
+      <c r="R13">
+        <v>80.82326212573801</v>
+      </c>
+      <c r="S13">
+        <v>0.01281153015301259</v>
+      </c>
+      <c r="T13">
+        <v>0.009771570300086185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.3542035</v>
+      </c>
+      <c r="H14">
+        <v>4.708407</v>
+      </c>
+      <c r="I14">
+        <v>0.04116687930545086</v>
+      </c>
+      <c r="J14">
+        <v>0.02782642861303881</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.7592263333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.277679</v>
+      </c>
+      <c r="O14">
+        <v>0.04129364274909889</v>
+      </c>
+      <c r="P14">
+        <v>0.04659475470418655</v>
+      </c>
+      <c r="Q14">
+        <v>1.7873732912255</v>
+      </c>
+      <c r="R14">
+        <v>10.724239747353</v>
+      </c>
+      <c r="S14">
+        <v>0.00169993040713456</v>
+      </c>
+      <c r="T14">
+        <v>0.001296565615518101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.3542035</v>
+      </c>
+      <c r="H15">
+        <v>4.708407</v>
+      </c>
+      <c r="I15">
+        <v>0.04116687930545086</v>
+      </c>
+      <c r="J15">
+        <v>0.02782642861303881</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9663673333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.899102</v>
+      </c>
+      <c r="O15">
+        <v>0.05255985688992966</v>
+      </c>
+      <c r="P15">
+        <v>0.0593072801533564</v>
+      </c>
+      <c r="Q15">
+        <v>2.275025358419</v>
+      </c>
+      <c r="R15">
+        <v>13.650152150514</v>
+      </c>
+      <c r="S15">
+        <v>0.002163725284899504</v>
+      </c>
+      <c r="T15">
+        <v>0.001650309797420865</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.3542035</v>
+      </c>
+      <c r="H16">
+        <v>4.708407</v>
+      </c>
+      <c r="I16">
+        <v>0.04116687930545086</v>
+      </c>
+      <c r="J16">
+        <v>0.02782642861303881</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.275369</v>
+      </c>
+      <c r="N16">
+        <v>12.550738</v>
+      </c>
+      <c r="O16">
+        <v>0.3413117198755004</v>
+      </c>
+      <c r="P16">
+        <v>0.2567519648144067</v>
+      </c>
+      <c r="Q16">
+        <v>14.7734956635915</v>
+      </c>
+      <c r="R16">
+        <v>59.093982654366</v>
+      </c>
+      <c r="S16">
+        <v>0.01405073837765058</v>
+      </c>
+      <c r="T16">
+        <v>0.007144490220165539</v>
       </c>
     </row>
   </sheetData>
